--- a/s60_signal/position-01055-600029.xlsx
+++ b/s60_signal/position-01055-600029.xlsx
@@ -1045,6 +1045,9 @@
     <t>2021-02-04</t>
   </si>
   <si>
+    <t>2021-02-08</t>
+  </si>
+  <si>
     <t>2021-03-03</t>
   </si>
   <si>
@@ -1067,9 +1070,6 @@
   </si>
   <si>
     <t>2021-06-18</t>
-  </si>
-  <si>
-    <t>2021-07-07</t>
   </si>
   <si>
     <t>2016-01-27</t>
@@ -1525,7 +1525,7 @@
     <t>2021-06-23</t>
   </si>
   <si>
-    <t>2021-07-12</t>
+    <t>2021-07-13</t>
   </si>
   <si>
     <t>2015-12-30</t>
@@ -88883,7 +88883,7 @@
         <v>1.693421443011094</v>
       </c>
       <c r="D1734" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="E1734">
         <v>1.830425471574629</v>
@@ -90380,40 +90380,40 @@
         <v>343</v>
       </c>
       <c r="C1764">
-        <v>0.02174973617609322</v>
+        <v>0.712667936756973</v>
       </c>
       <c r="D1764" t="s">
-        <v>499</v>
+        <v>330</v>
       </c>
       <c r="E1764">
-        <v>0.4267483820356928</v>
+        <v>-0.1377992883758727</v>
       </c>
       <c r="F1764">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1764">
-        <v>0.01265825026382391</v>
+        <v>0.01166733206324303</v>
       </c>
       <c r="H1764">
-        <v>0.01331325161796431</v>
+        <v>0.01315779928837587</v>
       </c>
       <c r="I1764">
-        <v>0.4049986458595995</v>
+        <v>0.8504672251328458</v>
       </c>
       <c r="J1764">
         <v>1.136375946730918</v>
       </c>
       <c r="K1764">
-        <v>5.56</v>
+        <v>4.82</v>
       </c>
       <c r="L1764">
-        <v>6.34</v>
+        <v>6.19</v>
       </c>
       <c r="M1764">
-        <v>5.67</v>
+        <v>5.85</v>
       </c>
       <c r="N1764">
-        <v>6.87</v>
+        <v>6.51</v>
       </c>
       <c r="O1764">
         <v>1</v>
@@ -90430,7 +90430,7 @@
         <v>344</v>
       </c>
       <c r="C1765">
-        <v>0.09311349564340343</v>
+        <v>0.02174973617609322</v>
       </c>
       <c r="D1765" t="s">
         <v>499</v>
@@ -90442,22 +90442,22 @@
         <v>1</v>
       </c>
       <c r="G1765">
-        <v>0.0127068865043566</v>
+        <v>0.01265825026382391</v>
       </c>
       <c r="H1765">
         <v>0.01331325161796431</v>
       </c>
       <c r="I1765">
-        <v>0.3336348863922893</v>
+        <v>0.4049986458595995</v>
       </c>
       <c r="J1765">
         <v>1.136375946730918</v>
       </c>
       <c r="K1765">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="L1765">
-        <v>6.4</v>
+        <v>6.34</v>
       </c>
       <c r="M1765">
         <v>5.67</v>
@@ -90474,63 +90474,63 @@
     </row>
     <row r="1766" spans="1:16">
       <c r="A1766" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1766" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C1766">
-        <v>0.6062897709851631</v>
+        <v>0.09311349564340343</v>
       </c>
       <c r="D1766" t="s">
-        <v>330</v>
+        <v>499</v>
       </c>
       <c r="E1766">
-        <v>-0.2296624920399086</v>
+        <v>0.4267483820356928</v>
       </c>
       <c r="F1766">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1766">
-        <v>0.01081371022901484</v>
+        <v>0.0127068865043566</v>
       </c>
       <c r="H1766">
-        <v>0.01324966249203991</v>
+        <v>0.01331325161796431</v>
       </c>
       <c r="I1766">
-        <v>0.8359522630250718</v>
+        <v>0.3336348863922893</v>
       </c>
       <c r="J1766">
-        <v>1.15207905846836</v>
+        <v>1.136375946730918</v>
       </c>
       <c r="K1766">
-        <v>4.43</v>
+        <v>5.55</v>
       </c>
       <c r="L1766">
-        <v>5.71</v>
+        <v>6.4</v>
       </c>
       <c r="M1766">
-        <v>5.85</v>
+        <v>5.67</v>
       </c>
       <c r="N1766">
-        <v>6.51</v>
+        <v>6.87</v>
       </c>
       <c r="O1766">
         <v>1</v>
       </c>
       <c r="P1766" t="s">
-        <v>329</v>
+        <v>611</v>
       </c>
     </row>
     <row r="1767" spans="1:16">
       <c r="A1767" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1767" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1767">
-        <v>0.5902066086464295</v>
+        <v>0.6062897709851631</v>
       </c>
       <c r="D1767" t="s">
         <v>330</v>
@@ -90542,22 +90542,22 @@
         <v>-1</v>
       </c>
       <c r="G1767">
-        <v>0.01088979339135357</v>
+        <v>0.01081371022901484</v>
       </c>
       <c r="H1767">
         <v>0.01324966249203991</v>
       </c>
       <c r="I1767">
-        <v>0.8198691006863381</v>
+        <v>0.8359522630250718</v>
       </c>
       <c r="J1767">
         <v>1.15207905846836</v>
       </c>
       <c r="K1767">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="L1767">
-        <v>5.74</v>
+        <v>5.71</v>
       </c>
       <c r="M1767">
         <v>5.85</v>
@@ -90574,13 +90574,13 @@
     </row>
     <row r="1768" spans="1:16">
       <c r="A1768" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1768" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1768">
-        <v>0.6438937239085814</v>
+        <v>0.5902066086464295</v>
       </c>
       <c r="D1768" t="s">
         <v>330</v>
@@ -90592,22 +90592,22 @@
         <v>-1</v>
       </c>
       <c r="G1768">
-        <v>0.01073610627609142</v>
+        <v>0.01088979339135357</v>
       </c>
       <c r="H1768">
         <v>0.01324966249203991</v>
       </c>
       <c r="I1768">
-        <v>0.87355621594849</v>
+        <v>0.8198691006863381</v>
       </c>
       <c r="J1768">
         <v>1.15207905846836</v>
       </c>
       <c r="K1768">
-        <v>4.38</v>
+        <v>4.47</v>
       </c>
       <c r="L1768">
-        <v>5.69</v>
+        <v>5.74</v>
       </c>
       <c r="M1768">
         <v>5.85</v>
@@ -90624,46 +90624,46 @@
     </row>
     <row r="1769" spans="1:16">
       <c r="A1769" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1769" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1769">
-        <v>-0.06555956508408389</v>
+        <v>0.6438937239085814</v>
       </c>
       <c r="D1769" t="s">
-        <v>499</v>
+        <v>330</v>
       </c>
       <c r="E1769">
-        <v>0.3377117384843968</v>
+        <v>-0.2296624920399086</v>
       </c>
       <c r="F1769">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1769">
-        <v>0.01274555956508408</v>
+        <v>0.01073610627609142</v>
       </c>
       <c r="H1769">
-        <v>0.0134022882615156</v>
+        <v>0.01324966249203991</v>
       </c>
       <c r="I1769">
-        <v>0.4032713035684807</v>
+        <v>0.87355621594849</v>
       </c>
       <c r="J1769">
         <v>1.15207905846836</v>
       </c>
       <c r="K1769">
-        <v>5.56</v>
+        <v>4.38</v>
       </c>
       <c r="L1769">
-        <v>6.34</v>
+        <v>5.69</v>
       </c>
       <c r="M1769">
-        <v>5.67</v>
+        <v>5.85</v>
       </c>
       <c r="N1769">
-        <v>6.87</v>
+        <v>6.51</v>
       </c>
       <c r="O1769">
         <v>1</v>
@@ -90674,13 +90674,13 @@
     </row>
     <row r="1770" spans="1:16">
       <c r="A1770" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1770" t="s">
         <v>344</v>
       </c>
       <c r="C1770">
-        <v>0.005961225500599632</v>
+        <v>-0.06555956508408389</v>
       </c>
       <c r="D1770" t="s">
         <v>499</v>
@@ -90692,22 +90692,22 @@
         <v>1</v>
       </c>
       <c r="G1770">
-        <v>0.0127940387744994</v>
+        <v>0.01274555956508408</v>
       </c>
       <c r="H1770">
         <v>0.0134022882615156</v>
       </c>
       <c r="I1770">
-        <v>0.3317505129837972</v>
+        <v>0.4032713035684807</v>
       </c>
       <c r="J1770">
         <v>1.15207905846836</v>
       </c>
       <c r="K1770">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="L1770">
-        <v>6.4</v>
+        <v>6.34</v>
       </c>
       <c r="M1770">
         <v>5.67</v>
@@ -90724,63 +90724,63 @@
     </row>
     <row r="1771" spans="1:16">
       <c r="A1771" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1771" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="C1771">
-        <v>0.4385197763909581</v>
+        <v>0.005961225500599632</v>
       </c>
       <c r="D1771" t="s">
-        <v>330</v>
+        <v>499</v>
       </c>
       <c r="E1771">
-        <v>-0.4512097760977198</v>
+        <v>0.3377117384843968</v>
       </c>
       <c r="F1771">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1771">
-        <v>0.01098148022360904</v>
+        <v>0.0127940387744994</v>
       </c>
       <c r="H1771">
-        <v>0.01347120977609772</v>
+        <v>0.0134022882615156</v>
       </c>
       <c r="I1771">
-        <v>0.8897295524886779</v>
+        <v>0.3317505129837972</v>
       </c>
       <c r="J1771">
-        <v>1.189950389076533</v>
+        <v>1.15207905846836</v>
       </c>
       <c r="K1771">
-        <v>4.43</v>
+        <v>5.55</v>
       </c>
       <c r="L1771">
-        <v>5.71</v>
+        <v>6.4</v>
       </c>
       <c r="M1771">
-        <v>5.85</v>
+        <v>5.67</v>
       </c>
       <c r="N1771">
-        <v>6.51</v>
+        <v>6.87</v>
       </c>
       <c r="O1771">
         <v>1</v>
       </c>
       <c r="P1771" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="1772" spans="1:16">
       <c r="A1772" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1772" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C1772">
-        <v>0.4209217608278966</v>
+        <v>0.4385197763909581</v>
       </c>
       <c r="D1772" t="s">
         <v>330</v>
@@ -90792,22 +90792,22 @@
         <v>-1</v>
       </c>
       <c r="G1772">
-        <v>0.0110590782391721</v>
+        <v>0.01098148022360904</v>
       </c>
       <c r="H1772">
         <v>0.01347120977609772</v>
       </c>
       <c r="I1772">
-        <v>0.8721315369256164</v>
+        <v>0.8897295524886779</v>
       </c>
       <c r="J1772">
         <v>1.189950389076533</v>
       </c>
       <c r="K1772">
-        <v>4.47</v>
+        <v>4.43</v>
       </c>
       <c r="L1772">
-        <v>5.74</v>
+        <v>5.71</v>
       </c>
       <c r="M1772">
         <v>5.85</v>
@@ -90824,13 +90824,13 @@
     </row>
     <row r="1773" spans="1:16">
       <c r="A1773" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1773" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C1773">
-        <v>0.4780172958447846</v>
+        <v>0.4209217608278966</v>
       </c>
       <c r="D1773" t="s">
         <v>330</v>
@@ -90842,22 +90842,22 @@
         <v>-1</v>
       </c>
       <c r="G1773">
-        <v>0.01090198270415522</v>
+        <v>0.0110590782391721</v>
       </c>
       <c r="H1773">
         <v>0.01347120977609772</v>
       </c>
       <c r="I1773">
-        <v>0.9292270719425044</v>
+        <v>0.8721315369256164</v>
       </c>
       <c r="J1773">
         <v>1.189950389076533</v>
       </c>
       <c r="K1773">
-        <v>4.38</v>
+        <v>4.47</v>
       </c>
       <c r="L1773">
-        <v>5.69</v>
+        <v>5.74</v>
       </c>
       <c r="M1773">
         <v>5.85</v>
@@ -90874,46 +90874,46 @@
     </row>
     <row r="1774" spans="1:16">
       <c r="A1774" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1774" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C1774">
-        <v>-0.2761241632655249</v>
+        <v>0.4780172958447846</v>
       </c>
       <c r="D1774" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E1774">
-        <v>0.1458857589191682</v>
+        <v>-0.4512097760977198</v>
       </c>
       <c r="F1774">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1774">
-        <v>0.01295612416326553</v>
+        <v>0.01090198270415522</v>
       </c>
       <c r="H1774">
-        <v>0.01385411424108083</v>
+        <v>0.01347120977609772</v>
       </c>
       <c r="I1774">
-        <v>0.4220099221846931</v>
+        <v>0.9292270719425044</v>
       </c>
       <c r="J1774">
         <v>1.189950389076533</v>
       </c>
       <c r="K1774">
-        <v>5.56</v>
+        <v>4.38</v>
       </c>
       <c r="L1774">
-        <v>6.34</v>
+        <v>5.69</v>
       </c>
       <c r="M1774">
-        <v>5.76</v>
+        <v>5.85</v>
       </c>
       <c r="N1774">
-        <v>7</v>
+        <v>6.51</v>
       </c>
       <c r="O1774">
         <v>1</v>
@@ -90924,13 +90924,13 @@
     </row>
     <row r="1775" spans="1:16">
       <c r="A1775" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1775" t="s">
         <v>344</v>
       </c>
       <c r="C1775">
-        <v>-0.2042246593747592</v>
+        <v>-0.2761241632655249</v>
       </c>
       <c r="D1775" t="s">
         <v>339</v>
@@ -90942,22 +90942,22 @@
         <v>1</v>
       </c>
       <c r="G1775">
-        <v>0.01300422465937476</v>
+        <v>0.01295612416326553</v>
       </c>
       <c r="H1775">
         <v>0.01385411424108083</v>
       </c>
       <c r="I1775">
-        <v>0.3501104182939274</v>
+        <v>0.4220099221846931</v>
       </c>
       <c r="J1775">
         <v>1.189950389076533</v>
       </c>
       <c r="K1775">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="L1775">
-        <v>6.4</v>
+        <v>6.34</v>
       </c>
       <c r="M1775">
         <v>5.76</v>
@@ -90974,96 +90974,96 @@
     </row>
     <row r="1776" spans="1:16">
       <c r="A1776" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1776" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C1776">
-        <v>0.2186377319859307</v>
+        <v>-0.2042246593747592</v>
       </c>
       <c r="D1776" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="E1776">
-        <v>-0.7159439078036476</v>
+        <v>0.1458857589191682</v>
       </c>
       <c r="F1776">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1776">
-        <v>0.01126136226801407</v>
+        <v>0.01300422465937476</v>
       </c>
       <c r="H1776">
-        <v>0.01373594390780365</v>
+        <v>0.01385411424108083</v>
       </c>
       <c r="I1776">
-        <v>0.9345816397895783</v>
+        <v>0.3501104182939274</v>
       </c>
       <c r="J1776">
-        <v>1.235204086804042</v>
+        <v>1.189950389076533</v>
       </c>
       <c r="K1776">
-        <v>4.47</v>
+        <v>5.55</v>
       </c>
       <c r="L1776">
-        <v>5.74</v>
+        <v>6.4</v>
       </c>
       <c r="M1776">
-        <v>5.85</v>
+        <v>5.76</v>
       </c>
       <c r="N1776">
-        <v>6.51</v>
+        <v>7</v>
       </c>
       <c r="O1776">
         <v>1</v>
       </c>
       <c r="P1776" t="s">
-        <v>340</v>
+        <v>333</v>
       </c>
     </row>
     <row r="1777" spans="1:16">
       <c r="A1777" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1777" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C1777">
-        <v>-0.5277347226304752</v>
+        <v>0.2186377319859307</v>
       </c>
       <c r="D1777" t="s">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="E1777">
-        <v>-0.07538268176243434</v>
+        <v>-0.7159439078036476</v>
       </c>
       <c r="F1777">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1777">
-        <v>0.01320773472263048</v>
+        <v>0.01126136226801407</v>
       </c>
       <c r="H1777">
-        <v>0.01363538268176243</v>
+        <v>0.01373594390780365</v>
       </c>
       <c r="I1777">
-        <v>0.4523520408680408</v>
+        <v>0.9345816397895783</v>
       </c>
       <c r="J1777">
         <v>1.235204086804042</v>
       </c>
       <c r="K1777">
-        <v>5.56</v>
+        <v>4.47</v>
       </c>
       <c r="L1777">
-        <v>6.34</v>
+        <v>5.74</v>
       </c>
       <c r="M1777">
-        <v>5.55</v>
+        <v>5.85</v>
       </c>
       <c r="N1777">
-        <v>6.78</v>
+        <v>6.51</v>
       </c>
       <c r="O1777">
         <v>1</v>
@@ -91074,13 +91074,13 @@
     </row>
     <row r="1778" spans="1:16">
       <c r="A1778" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1778" t="s">
         <v>344</v>
       </c>
       <c r="C1778">
-        <v>-0.4553826817624342</v>
+        <v>-0.5277347226304752</v>
       </c>
       <c r="D1778" t="s">
         <v>500</v>
@@ -91092,22 +91092,22 @@
         <v>1</v>
       </c>
       <c r="G1778">
-        <v>0.01325538268176243</v>
+        <v>0.01320773472263048</v>
       </c>
       <c r="H1778">
         <v>0.01363538268176243</v>
       </c>
       <c r="I1778">
-        <v>0.3799999999999999</v>
+        <v>0.4523520408680408</v>
       </c>
       <c r="J1778">
         <v>1.235204086804042</v>
       </c>
       <c r="K1778">
-        <v>5.55</v>
+        <v>5.56</v>
       </c>
       <c r="L1778">
-        <v>6.4</v>
+        <v>6.34</v>
       </c>
       <c r="M1778">
         <v>5.55</v>
@@ -91124,96 +91124,96 @@
     </row>
     <row r="1779" spans="1:16">
       <c r="A1779" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1779" t="s">
         <v>345</v>
       </c>
       <c r="C1779">
-        <v>1.197796528658245</v>
+        <v>-0.4553826817624342</v>
       </c>
       <c r="D1779" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E1779">
-        <v>1.33284899226162</v>
+        <v>-0.07538268176243434</v>
       </c>
       <c r="F1779">
         <v>1</v>
       </c>
       <c r="G1779">
-        <v>0.01170220347134176</v>
+        <v>0.01325538268176243</v>
       </c>
       <c r="H1779">
-        <v>0.01158715100773838</v>
+        <v>0.01363538268176243</v>
       </c>
       <c r="I1779">
-        <v>0.1350524636033752</v>
+        <v>0.3799999999999999</v>
       </c>
       <c r="J1779">
-        <v>0.9619420277182702</v>
+        <v>1.235204086804042</v>
       </c>
       <c r="K1779">
-        <v>5.46</v>
+        <v>5.55</v>
       </c>
       <c r="L1779">
-        <v>6.45</v>
+        <v>6.4</v>
       </c>
       <c r="M1779">
-        <v>5.33</v>
+        <v>5.55</v>
       </c>
       <c r="N1779">
-        <v>6.46</v>
+        <v>6.78</v>
       </c>
       <c r="O1779">
         <v>1</v>
       </c>
       <c r="P1779" t="s">
-        <v>612</v>
+        <v>340</v>
       </c>
     </row>
     <row r="1780" spans="1:16">
       <c r="A1780" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1780" t="s">
         <v>346</v>
       </c>
       <c r="C1780">
-        <v>1.195132470598524</v>
+        <v>1.197796528658245</v>
       </c>
       <c r="D1780" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E1780">
-        <v>1.302192760022736</v>
+        <v>1.33284899226162</v>
       </c>
       <c r="F1780">
         <v>1</v>
       </c>
       <c r="G1780">
-        <v>0.01156486752940148</v>
+        <v>0.01170220347134176</v>
       </c>
       <c r="H1780">
-        <v>0.01101780723997726</v>
+        <v>0.01158715100773838</v>
       </c>
       <c r="I1780">
-        <v>0.1070602894242123</v>
+        <v>0.1350524636033752</v>
       </c>
       <c r="J1780">
         <v>0.9619420277182702</v>
       </c>
       <c r="K1780">
-        <v>5.39</v>
+        <v>5.46</v>
       </c>
       <c r="L1780">
-        <v>6.38</v>
+        <v>6.45</v>
       </c>
       <c r="M1780">
-        <v>5.05</v>
+        <v>5.33</v>
       </c>
       <c r="N1780">
-        <v>6.16</v>
+        <v>6.46</v>
       </c>
       <c r="O1780">
         <v>1</v>
@@ -91224,13 +91224,13 @@
     </row>
     <row r="1781" spans="1:16">
       <c r="A1781" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1781" t="s">
         <v>347</v>
       </c>
       <c r="C1781">
-        <v>1.176379136973726</v>
+        <v>1.195132470598524</v>
       </c>
       <c r="D1781" t="s">
         <v>502</v>
@@ -91242,22 +91242,22 @@
         <v>1</v>
       </c>
       <c r="G1781">
-        <v>0.01110362086302627</v>
+        <v>0.01156486752940148</v>
       </c>
       <c r="H1781">
         <v>0.01101780723997726</v>
       </c>
       <c r="I1781">
-        <v>0.1258136230490106</v>
+        <v>0.1070602894242123</v>
       </c>
       <c r="J1781">
         <v>0.9619420277182702</v>
       </c>
       <c r="K1781">
-        <v>5.16</v>
+        <v>5.39</v>
       </c>
       <c r="L1781">
-        <v>6.14</v>
+        <v>6.38</v>
       </c>
       <c r="M1781">
         <v>5.05</v>
@@ -91274,46 +91274,46 @@
     </row>
     <row r="1782" spans="1:16">
       <c r="A1782" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1782" t="s">
         <v>348</v>
       </c>
       <c r="C1782">
-        <v>1.394200585843572</v>
+        <v>1.176379136973726</v>
       </c>
       <c r="D1782" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E1782">
-        <v>1.336208411664409</v>
+        <v>1.302192760022736</v>
       </c>
       <c r="F1782">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1782">
-        <v>0.01070579941415643</v>
+        <v>0.01110362086302627</v>
       </c>
       <c r="H1782">
-        <v>0.01024379158833559</v>
+        <v>0.01101780723997726</v>
       </c>
       <c r="I1782">
-        <v>0.05799217417916314</v>
+        <v>0.1258136230490106</v>
       </c>
       <c r="J1782">
         <v>0.9619420277182702</v>
       </c>
       <c r="K1782">
-        <v>4.84</v>
+        <v>5.16</v>
       </c>
       <c r="L1782">
-        <v>6.05</v>
+        <v>6.14</v>
       </c>
       <c r="M1782">
-        <v>4.63</v>
+        <v>5.05</v>
       </c>
       <c r="N1782">
-        <v>5.79</v>
+        <v>6.16</v>
       </c>
       <c r="O1782">
         <v>1</v>
@@ -91324,46 +91324,46 @@
     </row>
     <row r="1783" spans="1:16">
       <c r="A1783" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1783" t="s">
         <v>349</v>
       </c>
       <c r="C1783">
-        <v>1.397730730555678</v>
+        <v>1.394200585843572</v>
       </c>
       <c r="D1783" t="s">
         <v>503</v>
       </c>
       <c r="E1783">
-        <v>1.336208411664409</v>
+        <v>1.44620841166441</v>
       </c>
       <c r="F1783">
         <v>-1</v>
       </c>
       <c r="G1783">
-        <v>0.01038226926944432</v>
+        <v>0.01070579941415643</v>
       </c>
       <c r="H1783">
-        <v>0.01024379158833559</v>
+        <v>0.01035379158833559</v>
       </c>
       <c r="I1783">
-        <v>0.06152231889126902</v>
+        <v>-0.05200782582083718</v>
       </c>
       <c r="J1783">
         <v>0.9619420277182702</v>
       </c>
       <c r="K1783">
-        <v>4.67</v>
+        <v>4.84</v>
       </c>
       <c r="L1783">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="M1783">
         <v>4.63</v>
       </c>
       <c r="N1783">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="O1783">
         <v>1</v>
@@ -91374,96 +91374,96 @@
     </row>
     <row r="1784" spans="1:16">
       <c r="A1784" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1784" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C1784">
-        <v>0.883972777255555</v>
+        <v>1.397730730555678</v>
       </c>
       <c r="D1784" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E1784">
-        <v>1.026497234939947</v>
+        <v>1.44620841166441</v>
       </c>
       <c r="F1784">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1784">
-        <v>0.01201602722274444</v>
+        <v>0.01038226926944432</v>
       </c>
       <c r="H1784">
-        <v>0.01189350276506005</v>
+        <v>0.01035379158833559</v>
       </c>
       <c r="I1784">
-        <v>0.1425244576843916</v>
+        <v>-0.0484776811087313</v>
       </c>
       <c r="J1784">
-        <v>1.01941890526455</v>
+        <v>0.9619420277182702</v>
       </c>
       <c r="K1784">
-        <v>5.46</v>
+        <v>4.67</v>
       </c>
       <c r="L1784">
-        <v>6.45</v>
+        <v>5.89</v>
       </c>
       <c r="M1784">
-        <v>5.33</v>
+        <v>4.63</v>
       </c>
       <c r="N1784">
-        <v>6.46</v>
+        <v>5.9</v>
       </c>
       <c r="O1784">
         <v>1</v>
       </c>
       <c r="P1784" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="1785" spans="1:16">
       <c r="A1785" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1785" t="s">
         <v>346</v>
       </c>
       <c r="C1785">
-        <v>0.8853321006240735</v>
+        <v>0.883972777255555</v>
       </c>
       <c r="D1785" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E1785">
-        <v>1.011934528414021</v>
+        <v>1.026497234939947</v>
       </c>
       <c r="F1785">
         <v>1</v>
       </c>
       <c r="G1785">
-        <v>0.01187466789937593</v>
+        <v>0.01201602722274444</v>
       </c>
       <c r="H1785">
-        <v>0.01130806547158598</v>
+        <v>0.01189350276506005</v>
       </c>
       <c r="I1785">
-        <v>0.1266024277899476</v>
+        <v>0.1425244576843916</v>
       </c>
       <c r="J1785">
         <v>1.01941890526455</v>
       </c>
       <c r="K1785">
-        <v>5.39</v>
+        <v>5.46</v>
       </c>
       <c r="L1785">
-        <v>6.38</v>
+        <v>6.45</v>
       </c>
       <c r="M1785">
-        <v>5.05</v>
+        <v>5.33</v>
       </c>
       <c r="N1785">
-        <v>6.16</v>
+        <v>6.46</v>
       </c>
       <c r="O1785">
         <v>1</v>
@@ -91474,13 +91474,13 @@
     </row>
     <row r="1786" spans="1:16">
       <c r="A1786" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1786" t="s">
         <v>347</v>
       </c>
       <c r="C1786">
-        <v>0.8797984488349195</v>
+        <v>0.8853321006240735</v>
       </c>
       <c r="D1786" t="s">
         <v>502</v>
@@ -91492,22 +91492,22 @@
         <v>1</v>
       </c>
       <c r="G1786">
-        <v>0.01140020155116508</v>
+        <v>0.01187466789937593</v>
       </c>
       <c r="H1786">
         <v>0.01130806547158598</v>
       </c>
       <c r="I1786">
-        <v>0.1321360795791016</v>
+        <v>0.1266024277899476</v>
       </c>
       <c r="J1786">
         <v>1.01941890526455</v>
       </c>
       <c r="K1786">
-        <v>5.16</v>
+        <v>5.39</v>
       </c>
       <c r="L1786">
-        <v>6.14</v>
+        <v>6.38</v>
       </c>
       <c r="M1786">
         <v>5.05</v>
@@ -91524,13 +91524,13 @@
     </row>
     <row r="1787" spans="1:16">
       <c r="A1787" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1787" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C1787">
-        <v>0.8978565583084652</v>
+        <v>0.8797984488349195</v>
       </c>
       <c r="D1787" t="s">
         <v>502</v>
@@ -91542,22 +91542,22 @@
         <v>1</v>
       </c>
       <c r="G1787">
-        <v>0.01162214344169153</v>
+        <v>0.01140020155116508</v>
       </c>
       <c r="H1787">
         <v>0.01130806547158598</v>
       </c>
       <c r="I1787">
-        <v>0.1140779701055559</v>
+        <v>0.1321360795791016</v>
       </c>
       <c r="J1787">
         <v>1.01941890526455</v>
       </c>
       <c r="K1787">
-        <v>5.26</v>
+        <v>5.16</v>
       </c>
       <c r="L1787">
-        <v>6.26</v>
+        <v>6.14</v>
       </c>
       <c r="M1787">
         <v>5.05</v>
@@ -91574,46 +91574,46 @@
     </row>
     <row r="1788" spans="1:16">
       <c r="A1788" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1788" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C1788">
-        <v>1.116012498519576</v>
+        <v>0.8978565583084652</v>
       </c>
       <c r="D1788" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E1788">
-        <v>1.070090468625132</v>
+        <v>1.011934528414021</v>
       </c>
       <c r="F1788">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1788">
-        <v>0.01098398750148042</v>
+        <v>0.01162214344169153</v>
       </c>
       <c r="H1788">
-        <v>0.01050990953137487</v>
+        <v>0.01130806547158598</v>
       </c>
       <c r="I1788">
-        <v>0.04592202989444427</v>
+        <v>0.1140779701055559</v>
       </c>
       <c r="J1788">
         <v>1.01941890526455</v>
       </c>
       <c r="K1788">
-        <v>4.84</v>
+        <v>5.26</v>
       </c>
       <c r="L1788">
-        <v>6.05</v>
+        <v>6.26</v>
       </c>
       <c r="M1788">
-        <v>4.63</v>
+        <v>5.05</v>
       </c>
       <c r="N1788">
-        <v>5.79</v>
+        <v>6.16</v>
       </c>
       <c r="O1788">
         <v>1</v>
@@ -91624,46 +91624,46 @@
     </row>
     <row r="1789" spans="1:16">
       <c r="A1789" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1789" t="s">
         <v>349</v>
       </c>
       <c r="C1789">
-        <v>1.129313712414549</v>
+        <v>1.116012498519576</v>
       </c>
       <c r="D1789" t="s">
         <v>503</v>
       </c>
       <c r="E1789">
-        <v>1.070090468625132</v>
+        <v>1.180090468625132</v>
       </c>
       <c r="F1789">
         <v>-1</v>
       </c>
       <c r="G1789">
-        <v>0.01065068628758545</v>
+        <v>0.01098398750148042</v>
       </c>
       <c r="H1789">
-        <v>0.01050990953137487</v>
+        <v>0.01061990953137487</v>
       </c>
       <c r="I1789">
-        <v>0.05922324378941735</v>
+        <v>-0.06407797010555605</v>
       </c>
       <c r="J1789">
         <v>1.01941890526455</v>
       </c>
       <c r="K1789">
-        <v>4.67</v>
+        <v>4.84</v>
       </c>
       <c r="L1789">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="M1789">
         <v>4.63</v>
       </c>
       <c r="N1789">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="O1789">
         <v>1</v>
@@ -91674,96 +91674,96 @@
     </row>
     <row r="1790" spans="1:16">
       <c r="A1790" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B1790" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
       <c r="C1790">
-        <v>0.5770191431175951</v>
+        <v>1.129313712414549</v>
       </c>
       <c r="D1790" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E1790">
-        <v>0.7268520206624141</v>
+        <v>1.180090468625132</v>
       </c>
       <c r="F1790">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G1790">
-        <v>0.01232298085688241</v>
+        <v>0.01065068628758545</v>
       </c>
       <c r="H1790">
-        <v>0.01219314797933758</v>
+        <v>0.01061990953137487</v>
       </c>
       <c r="I1790">
-        <v>0.149832877544819</v>
+        <v>-0.05077675621058297</v>
       </c>
       <c r="J1790">
-        <v>1.075637519575532</v>
+        <v>1.01941890526455</v>
       </c>
       <c r="K1790">
-        <v>5.46</v>
+        <v>4.67</v>
       </c>
       <c r="L1790">
-        <v>6.45</v>
+        <v>5.89</v>
       </c>
       <c r="M1790">
-        <v>5.33</v>
+        <v>4.63</v>
       </c>
       <c r="N1790">
-        <v>6.46</v>
+        <v>5.9</v>
       </c>
       <c r="O1790">
         <v>1</v>
       </c>
       <c r="P1790" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="1791" spans="1:16">
       <c r="A1791" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1791" t="s">
         <v>346</v>
       </c>
       <c r="C1791">
-        <v>0.5823137694878824</v>
+        <v>0.5770191431175951</v>
       </c>
       <c r="D1791" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E1791">
-        <v>0.7280305261435629</v>
+        <v>0.7268520206624141</v>
       </c>
       <c r="F1791">
         <v>1</v>
       </c>
       <c r="G1791">
-        <v>0.01217768623051212</v>
+        <v>0.01232298085688241</v>
       </c>
       <c r="H1791">
-        <v>0.01159196947385644</v>
+        <v>0.01219314797933758</v>
       </c>
       <c r="I1791">
-        <v>0.1457167566556805</v>
+        <v>0.149832877544819</v>
       </c>
       <c r="J1791">
         <v>1.075637519575532</v>
       </c>
       <c r="K1791">
-        <v>5.39</v>
+        <v>5.46</v>
       </c>
       <c r="L1791">
-        <v>6.38</v>
+        <v>6.45</v>
       </c>
       <c r="M1791">
-        <v>5.05</v>
+        <v>5.33</v>
       </c>
       <c r="N1791">
-        <v>6.16</v>
+        <v>6.46</v>
       </c>
       <c r="O1791">
         <v>1</v>
@@ -91774,13 +91774,13 @@
     </row>
     <row r="1792" spans="1:16">
       <c r="A1792" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1792" t="s">
         <v>347</v>
       </c>
       <c r="C1792">
-        <v>0.5897103989902535</v>
+        <v>0.5823137694878824</v>
       </c>
       <c r="D1792" t="s">
         <v>502</v>
@@ -91792,22 +91792,22 @@
         <v>1</v>
       </c>
       <c r="G1792">
-        <v>0.01169028960100974</v>
+        <v>0.01217768623051212</v>
       </c>
       <c r="H1792">
         <v>0.01159196947385644</v>
       </c>
       <c r="I1792">
-        <v>0.1383201271533094</v>
+        <v>0.1457167566556805</v>
       </c>
       <c r="J1792">
         <v>1.075637519575532</v>
       </c>
       <c r="K1792">
-        <v>5.16</v>
+        <v>5.39</v>
       </c>
       <c r="L1792">
-        <v>6.14</v>
+        <v>6.38</v>
       </c>
       <c r="M1792">
         <v>5.05</v>
@@ -91824,13 +91824,13 @@
     </row>
     <row r="1793" spans="1:16">
       <c r="A1793" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1793" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="C1793">
-        <v>0.6021466470327015</v>
+        <v>0.5897103989902535</v>
       </c>
       <c r="D1793" t="s">
         <v>502</v>
@@ -91842,22 +91842,22 @@
         <v>1</v>
       </c>
       <c r="G1793">
-        <v>0.0119178533529673</v>
+        <v>0.01169028960100974</v>
       </c>
       <c r="H1793">
         <v>0.01159196947385644</v>
       </c>
       <c r="I1793">
-        <v>0.1258838791108614</v>
+        <v>0.1383201271533094</v>
       </c>
       <c r="J1793">
         <v>1.075637519575532</v>
       </c>
       <c r="K1793">
-        <v>5.26</v>
+        <v>5.16</v>
       </c>
       <c r="L1793">
-        <v>6.26</v>
+        <v>6.14</v>
       </c>
       <c r="M1793">
         <v>5.05</v>
@@ -91874,46 +91874,46 @@
     </row>
     <row r="1794" spans="1:16">
       <c r="A1794" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1794" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C1794">
-        <v>0.8439144052544245</v>
+        <v>0.6021466470327015</v>
       </c>
       <c r="D1794" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E1794">
-        <v>0.8097982843652867</v>
+        <v>0.7280305261435629</v>
       </c>
       <c r="F1794">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="G1794">
-        <v>0.01125608559474557</v>
+        <v>0.0119178533529673</v>
       </c>
       <c r="H1794">
-        <v>0.01077020171563471</v>
+        <v>0.01159196947385644</v>
       </c>
       <c r="I1794">
-        <v>0.03411612088913785</v>
+        <v>0.1258838791108614</v>
       </c>
       <c r="J1794">
         <v>1.075637519575532</v>
       </c>
       <c r="K1794">
-        <v>4.84</v>
+        <v>5.26</v>
       </c>
       <c r="L1794">
-        <v>6.05</v>
+        <v>6.26</v>
       </c>
       <c r="M1794">
-        <v>4.63</v>
+        <v>5.05</v>
       </c>
       <c r="N1794">
-        <v>5.79</v>
+        <v>6.16</v>
       </c>
       <c r="O1794">
         <v>1</v>
@@ -91924,46 +91924,46 @@
     </row>
     <row r="1795" spans="1:16">
       <c r="A1795" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1795" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C1795">
-        <v>0.7914781572119773</v>
+        <v>0.8439144052544245</v>
       </c>
       <c r="D1795" t="s">
         <v>503</v>
       </c>
       <c r="E1795">
-        <v>0.8097982843652867</v>
+        <v>0.919798284365287</v>
       </c>
       <c r="F1795">
         <v>-1</v>
       </c>
       <c r="G1795">
-        <v>0.01098852184278802</v>
+        <v>0.01125608559474557</v>
       </c>
       <c r="H1795">
-        <v>0.01077020171563471</v>
+        <v>0.01088020171563471</v>
       </c>
       <c r="I1795">
-        <v>-0.01832012715330933</v>
+        <v>-0.07588387911086247</v>
       </c>
       <c r="J1795">
         <v>1.075637519575532</v>
       </c>
       <c r="K1795">
-        <v>4.74</v>
+        <v>4.84</v>
       </c>
       <c r="L1795">
-        <v>5.89</v>
+        <v>6.05</v>
       </c>
       <c r="M1795">
         <v>4.63</v>
       </c>
       <c r="N1795">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="O1795">
         <v>1</v>
@@ -91974,10 +91974,10 @@
     </row>
     <row r="1796" spans="1:16">
       <c r="A1796" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1796" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C1796">
         <v>0.8667727835822649</v>
@@ -91986,7 +91986,7 @@
         <v>503</v>
       </c>
       <c r="E1796">
-        <v>0.8097982843652867</v>
+        <v>0.919798284365287</v>
       </c>
       <c r="F1796">
         <v>-1</v>
@@ -91995,10 +91995,10 @@
         <v>0.01091322721641774</v>
       </c>
       <c r="H1796">
-        <v>0.01077020171563471</v>
+        <v>0.01088020171563471</v>
       </c>
       <c r="I1796">
-        <v>0.05697449921697828</v>
+        <v>-0.05302550078302204</v>
       </c>
       <c r="J1796">
         <v>1.075637519575532</v>
@@ -92013,7 +92013,7 @@
         <v>4.63</v>
       </c>
       <c r="N1796">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="O1796">
         <v>1</v>
@@ -92027,7 +92027,7 @@
         <v>0</v>
       </c>
       <c r="B1797" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C1797">
         <v>0.5027888981262416</v>
@@ -92077,7 +92077,7 @@
         <v>1</v>
       </c>
       <c r="B1798" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C1798">
         <v>0.5090351943041105</v>
@@ -92127,7 +92127,7 @@
         <v>2</v>
       </c>
       <c r="B1799" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C1799">
         <v>0.5195587388885352</v>
@@ -92177,7 +92177,7 @@
         <v>3</v>
       </c>
       <c r="B1800" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C1800">
         <v>0.5306354586344373</v>
@@ -92227,7 +92227,7 @@
         <v>4</v>
       </c>
       <c r="B1801" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C1801">
         <v>0.7781132357016496</v>
@@ -92236,7 +92236,7 @@
         <v>503</v>
       </c>
       <c r="E1801">
-        <v>0.7468521242352564</v>
+        <v>0.8568521242352567</v>
       </c>
       <c r="F1801">
         <v>-1</v>
@@ -92245,10 +92245,10 @@
         <v>0.01132188676429835</v>
       </c>
       <c r="H1801">
-        <v>0.01083314787576475</v>
+        <v>0.01094314787576474</v>
       </c>
       <c r="I1801">
-        <v>0.03126111146639321</v>
+        <v>-0.07873888853360711</v>
       </c>
       <c r="J1801">
         <v>1.089232802540981</v>
@@ -92263,7 +92263,7 @@
         <v>4.63</v>
       </c>
       <c r="N1801">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="O1801">
         <v>1</v>
@@ -92277,34 +92277,34 @@
         <v>5</v>
       </c>
       <c r="B1802" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C1802">
-        <v>0.7270365159557475</v>
+        <v>0.8032828121336166</v>
       </c>
       <c r="D1802" t="s">
         <v>503</v>
       </c>
       <c r="E1802">
-        <v>0.7468521242352564</v>
+        <v>0.8568521242352567</v>
       </c>
       <c r="F1802">
         <v>-1</v>
       </c>
       <c r="G1802">
-        <v>0.01105296348404425</v>
+        <v>0.01097671718786638</v>
       </c>
       <c r="H1802">
-        <v>0.01083314787576475</v>
+        <v>0.01094314787576474</v>
       </c>
       <c r="I1802">
-        <v>-0.0198156082795089</v>
+        <v>-0.05356931210164007</v>
       </c>
       <c r="J1802">
         <v>1.089232802540981</v>
       </c>
       <c r="K1802">
-        <v>4.74</v>
+        <v>4.67</v>
       </c>
       <c r="L1802">
         <v>5.89</v>
@@ -92313,7 +92313,7 @@
         <v>4.63</v>
       </c>
       <c r="N1802">
-        <v>5.79</v>
+        <v>5.9</v>
       </c>
       <c r="O1802">
         <v>1</v>

--- a/s60_signal/position-01055-600029.xlsx
+++ b/s60_signal/position-01055-600029.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5436" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5439" uniqueCount="617">
   <si>
     <t>trade_time</t>
   </si>
@@ -1519,10 +1519,10 @@
     <t>2021-03-26</t>
   </si>
   <si>
-    <t>2021-07-14</t>
+    <t>2021-04-12</t>
   </si>
   <si>
-    <t>2021-04-12</t>
+    <t>2021-07-15</t>
   </si>
   <si>
     <t>2021-06-04</t>
@@ -2222,7 +2222,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P1808"/>
+  <dimension ref="A1:P1809"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -90736,10 +90736,10 @@
         <v>-0.06555956508408389</v>
       </c>
       <c r="D1771" t="s">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="E1771">
-        <v>0.3377117384843968</v>
+        <v>0.3640246232222442</v>
       </c>
       <c r="F1771">
         <v>1</v>
@@ -90748,10 +90748,10 @@
         <v>0.01274555956508408</v>
       </c>
       <c r="H1771">
-        <v>0.0134022882615156</v>
+        <v>0.01363597537677776</v>
       </c>
       <c r="I1771">
-        <v>0.4032713035684807</v>
+        <v>0.4295841883063281</v>
       </c>
       <c r="J1771">
         <v>1.15207905846836</v>
@@ -90763,10 +90763,10 @@
         <v>6.34</v>
       </c>
       <c r="M1771">
-        <v>5.67</v>
+        <v>5.76</v>
       </c>
       <c r="N1771">
-        <v>6.87</v>
+        <v>7</v>
       </c>
       <c r="O1771">
         <v>1</v>
@@ -90786,10 +90786,10 @@
         <v>0.005961225500599632</v>
       </c>
       <c r="D1772" t="s">
-        <v>500</v>
+        <v>339</v>
       </c>
       <c r="E1772">
-        <v>0.3377117384843968</v>
+        <v>0.3640246232222442</v>
       </c>
       <c r="F1772">
         <v>1</v>
@@ -90798,10 +90798,10 @@
         <v>0.0127940387744994</v>
       </c>
       <c r="H1772">
-        <v>0.0134022882615156</v>
+        <v>0.01363597537677776</v>
       </c>
       <c r="I1772">
-        <v>0.3317505129837972</v>
+        <v>0.3580633977216445</v>
       </c>
       <c r="J1772">
         <v>1.15207905846836</v>
@@ -90813,10 +90813,10 @@
         <v>6.4</v>
       </c>
       <c r="M1772">
-        <v>5.67</v>
+        <v>5.76</v>
       </c>
       <c r="N1772">
-        <v>6.87</v>
+        <v>7</v>
       </c>
       <c r="O1772">
         <v>1</v>
@@ -91077,63 +91077,63 @@
     </row>
     <row r="1778" spans="1:16">
       <c r="A1778" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1778" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="C1778">
-        <v>0.3905296985756515</v>
+        <v>0.2186377319859307</v>
       </c>
       <c r="D1778" t="s">
-        <v>501</v>
+        <v>330</v>
       </c>
       <c r="E1778">
-        <v>0.3776252335925392</v>
+        <v>-0.7159439078036476</v>
       </c>
       <c r="F1778">
         <v>-1</v>
       </c>
       <c r="G1778">
-        <v>0.01140947030142435</v>
+        <v>0.01126136226801407</v>
       </c>
       <c r="H1778">
-        <v>0.01118237476640746</v>
+        <v>0.01373594390780365</v>
       </c>
       <c r="I1778">
-        <v>0.01290446498311226</v>
+        <v>0.9345816397895783</v>
       </c>
       <c r="J1778">
-        <v>1.189950389076533</v>
+        <v>1.235204086804042</v>
       </c>
       <c r="K1778">
-        <v>4.63</v>
+        <v>4.47</v>
       </c>
       <c r="L1778">
-        <v>5.9</v>
+        <v>5.74</v>
       </c>
       <c r="M1778">
-        <v>4.54</v>
+        <v>5.85</v>
       </c>
       <c r="N1778">
-        <v>5.78</v>
+        <v>6.51</v>
       </c>
       <c r="O1778">
         <v>1</v>
       </c>
       <c r="P1778" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="1779" spans="1:16">
       <c r="A1779" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B1779" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C1779">
-        <v>0.2186377319859307</v>
+        <v>0.2798060997982947</v>
       </c>
       <c r="D1779" t="s">
         <v>330</v>
@@ -91145,22 +91145,22 @@
         <v>-1</v>
       </c>
       <c r="G1779">
-        <v>0.01126136226801407</v>
+        <v>0.01110019390020171</v>
       </c>
       <c r="H1779">
         <v>0.01373594390780365</v>
       </c>
       <c r="I1779">
-        <v>0.9345816397895783</v>
+        <v>0.9957500076019423</v>
       </c>
       <c r="J1779">
         <v>1.235204086804042</v>
       </c>
       <c r="K1779">
-        <v>4.47</v>
+        <v>4.38</v>
       </c>
       <c r="L1779">
-        <v>5.74</v>
+        <v>5.69</v>
       </c>
       <c r="M1779">
         <v>5.85</v>
@@ -91177,7 +91177,7 @@
     </row>
     <row r="1780" spans="1:16">
       <c r="A1780" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1780" t="s">
         <v>344</v>
@@ -91186,7 +91186,7 @@
         <v>-0.5277347226304752</v>
       </c>
       <c r="D1780" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E1780">
         <v>-0.07538268176243434</v>
@@ -91227,7 +91227,7 @@
     </row>
     <row r="1781" spans="1:16">
       <c r="A1781" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1781" t="s">
         <v>345</v>
@@ -91236,7 +91236,7 @@
         <v>-0.4553826817624342</v>
       </c>
       <c r="D1781" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E1781">
         <v>-0.07538268176243434</v>
@@ -91277,7 +91277,7 @@
     </row>
     <row r="1782" spans="1:16">
       <c r="A1782" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B1782" t="s">
         <v>346</v>
@@ -91286,10 +91286,10 @@
         <v>0.1810050780972841</v>
       </c>
       <c r="D1782" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1782">
-        <v>0.1721734459096478</v>
+        <v>0.1874693641735679</v>
       </c>
       <c r="F1782">
         <v>-1</v>
@@ -91298,10 +91298,10 @@
         <v>0.01161899492190272</v>
       </c>
       <c r="H1782">
-        <v>0.01138782655409035</v>
+        <v>0.01145253063582643</v>
       </c>
       <c r="I1782">
-        <v>0.008831632187636274</v>
+        <v>-0.006464286076283798</v>
       </c>
       <c r="J1782">
         <v>1.235204086804042</v>
@@ -91313,10 +91313,10 @@
         <v>5.9</v>
       </c>
       <c r="M1782">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1782">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1782">
         <v>1</v>
@@ -91486,10 +91486,10 @@
         <v>1.394200585843572</v>
       </c>
       <c r="D1786" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1786">
-        <v>1.412783194159053</v>
+        <v>1.433544353604688</v>
       </c>
       <c r="F1786">
         <v>-1</v>
@@ -91498,10 +91498,10 @@
         <v>0.01070579941415643</v>
       </c>
       <c r="H1786">
-        <v>0.01014721680584095</v>
+        <v>0.01020645564639531</v>
       </c>
       <c r="I1786">
-        <v>-0.01858260831548098</v>
+        <v>-0.0393437677611157</v>
       </c>
       <c r="J1786">
         <v>0.9619420277182702</v>
@@ -91513,10 +91513,10 @@
         <v>6.05</v>
       </c>
       <c r="M1786">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1786">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1786">
         <v>1</v>
@@ -91536,10 +91536,10 @@
         <v>1.397730730555678</v>
       </c>
       <c r="D1787" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1787">
-        <v>1.412783194159053</v>
+        <v>1.433544353604688</v>
       </c>
       <c r="F1787">
         <v>-1</v>
@@ -91548,10 +91548,10 @@
         <v>0.01038226926944432</v>
       </c>
       <c r="H1787">
-        <v>0.01014721680584095</v>
+        <v>0.01020645564639531</v>
       </c>
       <c r="I1787">
-        <v>-0.01505246360337509</v>
+        <v>-0.03581362304900981</v>
       </c>
       <c r="J1787">
         <v>0.9619420277182702</v>
@@ -91563,10 +91563,10 @@
         <v>5.89</v>
       </c>
       <c r="M1787">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1787">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1787">
         <v>1</v>
@@ -91586,10 +91586,10 @@
         <v>1.44620841166441</v>
       </c>
       <c r="D1788" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1788">
-        <v>1.412783194159053</v>
+        <v>1.433544353604688</v>
       </c>
       <c r="F1788">
         <v>-1</v>
@@ -91598,10 +91598,10 @@
         <v>0.01035379158833559</v>
       </c>
       <c r="H1788">
-        <v>0.01014721680584095</v>
+        <v>0.01020645564639531</v>
       </c>
       <c r="I1788">
-        <v>0.03342521750535621</v>
+        <v>0.01266405805972148</v>
       </c>
       <c r="J1788">
         <v>0.9619420277182702</v>
@@ -91613,10 +91613,10 @@
         <v>5.9</v>
       </c>
       <c r="M1788">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1788">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1788">
         <v>1</v>
@@ -91836,10 +91836,10 @@
         <v>1.116012498519576</v>
       </c>
       <c r="D1793" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1793">
-        <v>1.151838170098942</v>
+        <v>1.171449791993651</v>
       </c>
       <c r="F1793">
         <v>-1</v>
@@ -91848,10 +91848,10 @@
         <v>0.01098398750148042</v>
       </c>
       <c r="H1793">
-        <v>0.01040816182990106</v>
+        <v>0.01046855020800635</v>
       </c>
       <c r="I1793">
-        <v>-0.03582567157936545</v>
+        <v>-0.05543729347407478</v>
       </c>
       <c r="J1793">
         <v>1.01941890526455</v>
@@ -91863,10 +91863,10 @@
         <v>6.05</v>
       </c>
       <c r="M1793">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1793">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1793">
         <v>1</v>
@@ -91886,10 +91886,10 @@
         <v>1.129313712414549</v>
       </c>
       <c r="D1794" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1794">
-        <v>1.151838170098942</v>
+        <v>1.171449791993651</v>
       </c>
       <c r="F1794">
         <v>-1</v>
@@ -91898,10 +91898,10 @@
         <v>0.01065068628758545</v>
       </c>
       <c r="H1794">
-        <v>0.01040816182990106</v>
+        <v>0.01046855020800635</v>
       </c>
       <c r="I1794">
-        <v>-0.02252445768439237</v>
+        <v>-0.0421360795791017</v>
       </c>
       <c r="J1794">
         <v>1.01941890526455</v>
@@ -91913,10 +91913,10 @@
         <v>5.89</v>
       </c>
       <c r="M1794">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1794">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1794">
         <v>1</v>
@@ -91936,10 +91936,10 @@
         <v>1.180090468625132</v>
       </c>
       <c r="D1795" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1795">
-        <v>1.151838170098942</v>
+        <v>1.171449791993651</v>
       </c>
       <c r="F1795">
         <v>-1</v>
@@ -91948,10 +91948,10 @@
         <v>0.01061990953137487</v>
       </c>
       <c r="H1795">
-        <v>0.01040816182990106</v>
+        <v>0.01046855020800635</v>
       </c>
       <c r="I1795">
-        <v>0.0282522985261906</v>
+        <v>0.00864067663148127</v>
       </c>
       <c r="J1795">
         <v>1.01941890526455</v>
@@ -91963,10 +91963,10 @@
         <v>5.9</v>
       </c>
       <c r="M1795">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1795">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1795">
         <v>1</v>
@@ -92186,10 +92186,10 @@
         <v>0.8439144052544245</v>
       </c>
       <c r="D1800" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1800">
-        <v>0.8966056611270847</v>
+        <v>0.9150929107355745</v>
       </c>
       <c r="F1800">
         <v>-1</v>
@@ -92198,10 +92198,10 @@
         <v>0.01125608559474557</v>
       </c>
       <c r="H1800">
-        <v>0.01066339433887292</v>
+        <v>0.01072490708926443</v>
       </c>
       <c r="I1800">
-        <v>-0.05269125587266021</v>
+        <v>-0.07117850548115001</v>
       </c>
       <c r="J1800">
         <v>1.075637519575532</v>
@@ -92213,10 +92213,10 @@
         <v>6.05</v>
       </c>
       <c r="M1800">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1800">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1800">
         <v>1</v>
@@ -92236,10 +92236,10 @@
         <v>0.8667727835822649</v>
       </c>
       <c r="D1801" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1801">
-        <v>0.8966056611270847</v>
+        <v>0.9150929107355745</v>
       </c>
       <c r="F1801">
         <v>-1</v>
@@ -92248,10 +92248,10 @@
         <v>0.01091322721641774</v>
       </c>
       <c r="H1801">
-        <v>0.01066339433887292</v>
+        <v>0.01072490708926443</v>
       </c>
       <c r="I1801">
-        <v>-0.02983287754481978</v>
+        <v>-0.04832012715330958</v>
       </c>
       <c r="J1801">
         <v>1.075637519575532</v>
@@ -92263,10 +92263,10 @@
         <v>5.89</v>
       </c>
       <c r="M1801">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1801">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1801">
         <v>1</v>
@@ -92286,10 +92286,10 @@
         <v>0.919798284365287</v>
       </c>
       <c r="D1802" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1802">
-        <v>0.8966056611270847</v>
+        <v>0.9150929107355745</v>
       </c>
       <c r="F1802">
         <v>-1</v>
@@ -92298,10 +92298,10 @@
         <v>0.01088020171563471</v>
       </c>
       <c r="H1802">
-        <v>0.01066339433887292</v>
+        <v>0.01072490708926443</v>
       </c>
       <c r="I1802">
-        <v>0.02319262323820226</v>
+        <v>0.004705373629712462</v>
       </c>
       <c r="J1802">
         <v>1.075637519575532</v>
@@ -92313,10 +92313,10 @@
         <v>5.9</v>
       </c>
       <c r="M1802">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1802">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1802">
         <v>1</v>
@@ -92536,10 +92536,10 @@
         <v>0.7781132357016496</v>
       </c>
       <c r="D1807" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1807">
-        <v>0.8348830764639441</v>
+        <v>0.8530984204131258</v>
       </c>
       <c r="F1807">
         <v>-1</v>
@@ -92548,10 +92548,10 @@
         <v>0.01132188676429835</v>
       </c>
       <c r="H1807">
-        <v>0.01072511692353606</v>
+        <v>0.01078690157958687</v>
       </c>
       <c r="I1807">
-        <v>-0.05676984076229452</v>
+        <v>-0.07498518471147619</v>
       </c>
       <c r="J1807">
         <v>1.089232802540981</v>
@@ -92563,10 +92563,10 @@
         <v>6.05</v>
       </c>
       <c r="M1807">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1807">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1807">
         <v>1</v>
@@ -92586,10 +92586,10 @@
         <v>0.8032828121336166</v>
       </c>
       <c r="D1808" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E1808">
-        <v>0.8348830764639441</v>
+        <v>0.8530984204131258</v>
       </c>
       <c r="F1808">
         <v>-1</v>
@@ -92598,10 +92598,10 @@
         <v>0.01097671718786638</v>
       </c>
       <c r="H1808">
-        <v>0.01072511692353606</v>
+        <v>0.01078690157958687</v>
       </c>
       <c r="I1808">
-        <v>-0.03160026433032748</v>
+        <v>-0.04981560827950915</v>
       </c>
       <c r="J1808">
         <v>1.089232802540981</v>
@@ -92613,15 +92613,65 @@
         <v>5.89</v>
       </c>
       <c r="M1808">
-        <v>4.54</v>
+        <v>4.56</v>
       </c>
       <c r="N1808">
-        <v>5.78</v>
+        <v>5.82</v>
       </c>
       <c r="O1808">
         <v>1</v>
       </c>
       <c r="P1808" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:16">
+      <c r="A1809" s="1">
+        <v>6</v>
+      </c>
+      <c r="B1809" t="s">
+        <v>346</v>
+      </c>
+      <c r="C1809">
+        <v>0.8568521242352567</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>502</v>
+      </c>
+      <c r="E1809">
+        <v>0.8530984204131258</v>
+      </c>
+      <c r="F1809">
+        <v>-1</v>
+      </c>
+      <c r="G1809">
+        <v>0.01094314787576474</v>
+      </c>
+      <c r="H1809">
+        <v>0.01078690157958687</v>
+      </c>
+      <c r="I1809">
+        <v>0.003753703822130916</v>
+      </c>
+      <c r="J1809">
+        <v>1.089232802540981</v>
+      </c>
+      <c r="K1809">
+        <v>4.63</v>
+      </c>
+      <c r="L1809">
+        <v>5.9</v>
+      </c>
+      <c r="M1809">
+        <v>4.56</v>
+      </c>
+      <c r="N1809">
+        <v>5.82</v>
+      </c>
+      <c r="O1809">
+        <v>1</v>
+      </c>
+      <c r="P1809" t="s">
         <v>616</v>
       </c>
     </row>
